--- a/appData/Details.xlsx
+++ b/appData/Details.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1556,6 +1556,726 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Tuesday/2020-11-10</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>23:52:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Tuesday/2020-11-10</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>23:52:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Tuesday/2020-11-10</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>23:54:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Tuesday/2020-11-10</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>23:54:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Tuesday/2020-11-10</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>23:54:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Tuesday/2020-11-10</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>23:54:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Tuesday/2020-11-10</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>23:54:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Tuesday/2020-11-10</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>23:55:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Tuesday/2020-11-10</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>23:55:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>4</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Tuesday/2020-11-10</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>23:55:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Tuesday/2020-11-10</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>23:55:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>01:17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>3</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>01:17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>01:17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>01:17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>01:17:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>01:17:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>01:17:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>01:18:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>01:18:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>01:18:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>01:18:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>09:09:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>09:10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>09:10:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>09:10:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>09:10:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>09:10:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>09:31:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>11:23:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>11:23:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>11:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>11:23:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>11:23:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Wednesday/2020-11-11</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>11:27:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Abnormal</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Thursday/2020-11-12</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>21:47:37</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/appData/Details.xlsx
+++ b/appData/Details.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1556,726 +1556,6 @@
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>3</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Tuesday/2020-11-10</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>23:52:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>3</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Tuesday/2020-11-10</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>23:52:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>2</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Tuesday/2020-11-10</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>23:54:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Tuesday/2020-11-10</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>23:54:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>2</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Tuesday/2020-11-10</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>23:54:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>2</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Tuesday/2020-11-10</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>23:54:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>2</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Tuesday/2020-11-10</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>23:54:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>3</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Tuesday/2020-11-10</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>23:55:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>2</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Tuesday/2020-11-10</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>23:55:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>4</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Tuesday/2020-11-10</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>23:55:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>5</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Tuesday/2020-11-10</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>23:55:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>3</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>01:17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>3</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>01:17:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>2</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>01:17:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>2</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>01:17:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>3</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>01:17:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>2</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>01:17:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>3</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>01:17:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>2</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>01:18:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>3</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>01:18:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>2</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>01:18:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>2</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>01:18:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>1</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>09:09:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>2</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>09:10:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>2</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>09:10:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>2</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>09:10:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>2</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>09:10:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>2</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>09:10:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>1</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>09:31:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>1</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>11:23:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>1</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>11:23:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>1</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>11:23:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>1</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>11:23:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>1</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>11:23:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>2</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Wednesday/2020-11-11</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>11:27:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>1</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Abnormal</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Thursday/2020-11-12</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>21:47:37</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
